--- a/data/trans_dic/P05A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P05A_R-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.387261328611394</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06445433675468798</v>
+        <v>0.06445433675468797</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3545932907160455</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2996606706235819</v>
+        <v>0.3017061231362642</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3501889380506869</v>
+        <v>0.352578703841495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3423794382343248</v>
+        <v>0.3438146247209471</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05067860826835767</v>
+        <v>0.04979442312344552</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3384751853504585</v>
+        <v>0.3387283281932677</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3439825519024109</v>
+        <v>0.3426975611081848</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3501922324775668</v>
+        <v>0.350466938448629</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05080216517780613</v>
+        <v>0.05072208314768913</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.329240090975455</v>
+        <v>0.3290091791075015</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3601522617487424</v>
+        <v>0.3581956300083842</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3577221772757838</v>
+        <v>0.3569631042119535</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05588205076746289</v>
+        <v>0.05478807645131402</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3717722109334966</v>
+        <v>0.3719668689219045</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4257121039395448</v>
+        <v>0.4273363605882505</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4147388295164575</v>
+        <v>0.4166772758769098</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09595244279175333</v>
+        <v>0.09557207829061093</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4123850469690144</v>
+        <v>0.4114214753430578</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4180187227937388</v>
+        <v>0.4195980595991614</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4281075417034566</v>
+        <v>0.4284092940208616</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08151560359582291</v>
+        <v>0.08355458806113845</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3790557937098099</v>
+        <v>0.3799499830528702</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4119334811423782</v>
+        <v>0.4107911528897117</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4093087750885283</v>
+        <v>0.4115536990275013</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08321863874215418</v>
+        <v>0.08316746006721129</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2651344751774826</v>
+        <v>0.2683225945504246</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2864695929189863</v>
+        <v>0.2861155678825159</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2749973739239358</v>
+        <v>0.274008791193955</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09701433351562443</v>
+        <v>0.09691573842334489</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3314281737573361</v>
+        <v>0.3322741862210938</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2908100796458722</v>
+        <v>0.2903945709455225</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2756710527211329</v>
+        <v>0.274537745040924</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1223860486373318</v>
+        <v>0.1232191053716543</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3086679593476568</v>
+        <v>0.3082157060902706</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2965842471820416</v>
+        <v>0.2962532246461204</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2831779269768476</v>
+        <v>0.2810238164052534</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1147181676982624</v>
+        <v>0.1157699795078403</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3273183582267698</v>
+        <v>0.3294418103915288</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3489549110628545</v>
+        <v>0.3469804853677514</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3363155373324044</v>
+        <v>0.3330750230557971</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1384267347049714</v>
+        <v>0.1416224314492771</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3944861993895578</v>
+        <v>0.3914833014850321</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3504852822730186</v>
+        <v>0.3515247107994668</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3342921181451075</v>
+        <v>0.3322455303133243</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1636068685679627</v>
+        <v>0.1624469519950769</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3529228006987665</v>
+        <v>0.352732778807582</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3402208521949305</v>
+        <v>0.3370309399009009</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3245297601313052</v>
+        <v>0.3267719914412289</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1460571250875052</v>
+        <v>0.1451600865480904</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.3931055153126133</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.191283084928993</v>
+        <v>0.1912830849289931</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2476563587125147</v>
+        <v>0.245422326296993</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3448325080704414</v>
+        <v>0.3488600922965074</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3554614946525829</v>
+        <v>0.354511211205718</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1608707004286116</v>
+        <v>0.1593136914510912</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2441514906790362</v>
+        <v>0.2429074232986106</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3695090898909405</v>
+        <v>0.3652493268495472</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3597869198873583</v>
+        <v>0.3591633852508773</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1678911340170689</v>
+        <v>0.1684714922856566</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2554572293215525</v>
+        <v>0.2542626166928875</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3680393282213255</v>
+        <v>0.3675415688022904</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3665304512256901</v>
+        <v>0.3656911576932807</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1709199601394204</v>
+        <v>0.1702500102960149</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3150880703736019</v>
+        <v>0.3179093434306508</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4195607725316697</v>
+        <v>0.4233790522816165</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4276719716568546</v>
+        <v>0.4278426175072773</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2252433694766965</v>
+        <v>0.2247306895575322</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3074403111203839</v>
+        <v>0.3104870016085282</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4418126347701553</v>
+        <v>0.4343692573622494</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4310507915314258</v>
+        <v>0.4312514613675309</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2218159482776965</v>
+        <v>0.2183440368629402</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3033794207138499</v>
+        <v>0.3007470093972743</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4194815501519543</v>
+        <v>0.4202733224904627</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4171440954761346</v>
+        <v>0.4185235882184775</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2132871580113934</v>
+        <v>0.2144687795343654</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2461433446112404</v>
+        <v>0.2463849381831205</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4656062542509447</v>
+        <v>0.465505444169224</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3451294534014632</v>
+        <v>0.3502309870343662</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3010209856684457</v>
+        <v>0.3057209814387743</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3208117963752641</v>
+        <v>0.3211402067705568</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4541718726437275</v>
+        <v>0.4528633259277155</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3653271558713476</v>
+        <v>0.3629553766030388</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3366317782712197</v>
+        <v>0.336799060251801</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.293761239655388</v>
+        <v>0.2933092261151596</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4674302441773168</v>
+        <v>0.4675971819806808</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3653593842381279</v>
+        <v>0.3648723898971452</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3302595453909821</v>
+        <v>0.3300867403153001</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3035878608186932</v>
+        <v>0.3037943843784945</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5317966335853529</v>
+        <v>0.5311083163495216</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4110730333760158</v>
+        <v>0.4094730201506082</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3676367960822911</v>
+        <v>0.3712186783772212</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3792695325040443</v>
+        <v>0.3808993205428983</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5143544653469203</v>
+        <v>0.5157498366773199</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4291843288279079</v>
+        <v>0.4272045488139519</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.388582151260291</v>
+        <v>0.3878800056278119</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.335935098679446</v>
+        <v>0.3348768051575735</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5146006560546671</v>
+        <v>0.5145482212184896</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4092930298826031</v>
+        <v>0.4094830000102566</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3701032858193747</v>
+        <v>0.3699116813058636</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.280737893077274</v>
+        <v>0.2809946008227046</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3795916139937504</v>
+        <v>0.3788499154973507</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3416930709360902</v>
+        <v>0.3427556206614477</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1720396067193689</v>
+        <v>0.1716956382849639</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3261511653591103</v>
+        <v>0.3273618084042295</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3819625533530212</v>
+        <v>0.3809681368805406</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.348583962360794</v>
+        <v>0.3513104935364176</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1926147194750338</v>
+        <v>0.1927916764846581</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3085942606506412</v>
+        <v>0.3086580730625506</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3859810807130303</v>
+        <v>0.3857709410091506</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3515708194827089</v>
+        <v>0.3518139525961006</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1854523332959428</v>
+        <v>0.1852919334136349</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3108917787262384</v>
+        <v>0.3126527666479297</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4159060776412247</v>
+        <v>0.4159516617265092</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.376748923100042</v>
+        <v>0.3752113350045632</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2008927390841384</v>
+        <v>0.2003036316083793</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3595365054260688</v>
+        <v>0.3609574382287812</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4163729689347302</v>
+        <v>0.4150405642030029</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3820237300248164</v>
+        <v>0.384163173848027</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2161832289214521</v>
+        <v>0.2171185912273697</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3311349645034042</v>
+        <v>0.3314070318207269</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4101783018810876</v>
+        <v>0.4105199054624102</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3751675012593411</v>
+        <v>0.3762142398203986</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2055197286570746</v>
+        <v>0.204522147321166</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>207968</v>
+        <v>209388</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>245552</v>
+        <v>247228</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>231038</v>
+        <v>232006</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>35004</v>
+        <v>34394</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>232990</v>
+        <v>233164</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>239182</v>
+        <v>238288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>235623</v>
+        <v>235808</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>37298</v>
+        <v>37239</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>455129</v>
+        <v>454810</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>502963</v>
+        <v>500231</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>482080</v>
+        <v>481057</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>79626</v>
+        <v>78067</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>258014</v>
+        <v>258149</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>298509</v>
+        <v>299648</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>279866</v>
+        <v>281174</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>66275</v>
+        <v>66013</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>283866</v>
+        <v>283202</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>290661</v>
+        <v>291760</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>288047</v>
+        <v>288250</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>59847</v>
+        <v>61344</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>523993</v>
+        <v>525229</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>575277</v>
+        <v>573682</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>551600</v>
+        <v>554626</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>118577</v>
+        <v>118504</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>255006</v>
+        <v>258073</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>290710</v>
+        <v>290351</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>281166</v>
+        <v>280155</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>101760</v>
+        <v>101657</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>320953</v>
+        <v>321772</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>299554</v>
+        <v>299126</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>287501</v>
+        <v>286319</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>131050</v>
+        <v>131942</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>595789</v>
+        <v>594916</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>606477</v>
+        <v>605800</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>584860</v>
+        <v>580411</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>243169</v>
+        <v>245398</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>314815</v>
+        <v>316857</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>354120</v>
+        <v>352117</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>343859</v>
+        <v>340546</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>145198</v>
+        <v>148550</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>382018</v>
+        <v>379110</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>361024</v>
+        <v>362095</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>348638</v>
+        <v>346503</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>175188</v>
+        <v>173946</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>681209</v>
+        <v>680842</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>695708</v>
+        <v>689185</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>670266</v>
+        <v>674897</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>309598</v>
+        <v>307697</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>168037</v>
+        <v>166521</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>261253</v>
+        <v>264304</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>269991</v>
+        <v>269270</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>129001</v>
+        <v>127753</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>166961</v>
+        <v>166110</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>286781</v>
+        <v>283475</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>281979</v>
+        <v>281491</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>136371</v>
+        <v>136842</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>348022</v>
+        <v>346395</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>564476</v>
+        <v>563712</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>565664</v>
+        <v>564368</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>275891</v>
+        <v>274810</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>213790</v>
+        <v>215704</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>317869</v>
+        <v>320762</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>324839</v>
+        <v>324969</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>180622</v>
+        <v>180210</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>210240</v>
+        <v>212324</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>342897</v>
+        <v>337120</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>337832</v>
+        <v>337989</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>180172</v>
+        <v>177352</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>413309</v>
+        <v>409723</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>643374</v>
+        <v>644589</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>643775</v>
+        <v>645904</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>344278</v>
+        <v>346186</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>231922</v>
+        <v>232149</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>441273</v>
+        <v>441178</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>323145</v>
+        <v>327921</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>297693</v>
+        <v>302341</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>333199</v>
+        <v>333540</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>477310</v>
+        <v>475934</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>380943</v>
+        <v>378470</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>376454</v>
+        <v>376641</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>581892</v>
+        <v>580997</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>934245</v>
+        <v>934579</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>723062</v>
+        <v>722099</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>695936</v>
+        <v>695572</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>286047</v>
+        <v>286242</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>504004</v>
+        <v>503352</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>384888</v>
+        <v>383390</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>363572</v>
+        <v>367114</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>393914</v>
+        <v>395607</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>540558</v>
+        <v>542025</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>447529</v>
+        <v>445465</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>434549</v>
+        <v>433764</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>665432</v>
+        <v>663335</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1028524</v>
+        <v>1028419</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>810009</v>
+        <v>810385</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>779896</v>
+        <v>779493</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>919850</v>
+        <v>920691</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1298721</v>
+        <v>1296184</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1159393</v>
+        <v>1162998</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>607380</v>
+        <v>606166</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1102129</v>
+        <v>1106220</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1356906</v>
+        <v>1353373</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1234767</v>
+        <v>1244425</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>719517</v>
+        <v>720178</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2053923</v>
+        <v>2054348</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2691764</v>
+        <v>2690298</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2438256</v>
+        <v>2439942</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1347495</v>
+        <v>1346329</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1018650</v>
+        <v>1024420</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1422966</v>
+        <v>1423122</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1278340</v>
+        <v>1273123</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>709245</v>
+        <v>707165</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1214945</v>
+        <v>1219746</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1479147</v>
+        <v>1474414</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1353218</v>
+        <v>1360797</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>807557</v>
+        <v>811051</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2203949</v>
+        <v>2205759</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2860511</v>
+        <v>2862893</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2601906</v>
+        <v>2609166</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1493304</v>
+        <v>1486056</v>
       </c>
     </row>
     <row r="24">
